--- a/biology/Médecine/Catalogue_et_index_des_sites_médicaux_de_langue_française/Catalogue_et_index_des_sites_médicaux_de_langue_française.xlsx
+++ b/biology/Médecine/Catalogue_et_index_des_sites_médicaux_de_langue_française/Catalogue_et_index_des_sites_médicaux_de_langue_française.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Catalogue_et_index_des_sites_m%C3%A9dicaux_de_langue_fran%C3%A7aise</t>
+          <t>Catalogue_et_index_des_sites_médicaux_de_langue_française</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le CISMeF est un système de métadonnées médicales en langue française concernant le Catalogue et Index des Sites Médicaux de langue Française (acronyme : CISMeF).
-Cette initiative a été lancée et est toujours maintenue par le Centre hospitalier universitaire de Rouen - Hôpitaux de Rouen[1].
-« CISMeF utilise deux outils standards pour organiser l'information : le thesaurus MeSH (Medical Subject Headings) utilisé notamment pour la base de données bibliographique MEDLINE et le format de métadonnées du Dublin Core[1]. »
+Cette initiative a été lancée et est toujours maintenue par le Centre hospitalier universitaire de Rouen - Hôpitaux de Rouen.
+« CISMeF utilise deux outils standards pour organiser l'information : le thesaurus MeSH (Medical Subject Headings) utilisé notamment pour la base de données bibliographique MEDLINE et le format de métadonnées du Dublin Core. »
 Le CISMeF propose en 2020 plusieurs outils principaux élaborés :
-Doc’CISMeF[2] pour fouiller le CISMeF proprement dit
-LiSSa[3] est la base de données bibliographiques de la Littérature Scientifique en Santé.
-CRBM[4] : Constructeur de Requêtes Bibliographiques Médicales pour formuler les recherches sur PubMed, CISMeF et LiSSa en langue française.
-HeTOP[5] (Health Terminology/Ontology Portal) inclut les principales terminologies et ontologies de santé, et contient plus de 2 millions de concepts disponibles dans plusieurs langues à travers plus de 70 terminologies ou ontologies (en 2020). il permet d'accéder en particulier à la CISP2[6] et au Q codes[7].</t>
+Doc’CISMeF pour fouiller le CISMeF proprement dit
+LiSSa est la base de données bibliographiques de la Littérature Scientifique en Santé.
+CRBM : Constructeur de Requêtes Bibliographiques Médicales pour formuler les recherches sur PubMed, CISMeF et LiSSa en langue française.
+HeTOP (Health Terminology/Ontology Portal) inclut les principales terminologies et ontologies de santé, et contient plus de 2 millions de concepts disponibles dans plusieurs langues à travers plus de 70 terminologies ou ontologies (en 2020). il permet d'accéder en particulier à la CISP2 et au Q codes.</t>
         </is>
       </c>
     </row>
